--- a/src/tests/housing-estimation.test-cases.xlsx
+++ b/src/tests/housing-estimation.test-cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naoto/Documents/projects/code-for-japan/JibungotoPlanet-backend/src/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3317E74-AF74-F645-833E-AFBFAB5EE446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B34F64D-7528-3049-97D1-F6B2100D40C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="14" xr2:uid="{504EB999-7D82-6E4A-B2A0-71B74C50F3FE}"/>
+    <workbookView xWindow="-38400" yWindow="7700" windowWidth="38400" windowHeight="21100" firstSheet="2" activeTab="19" xr2:uid="{504EB999-7D82-6E4A-B2A0-71B74C50F3FE}"/>
   </bookViews>
   <sheets>
     <sheet name="answers" sheetId="24" r:id="rId1"/>
@@ -28,6 +28,11 @@
     <sheet name="housing13" sheetId="35" r:id="rId13"/>
     <sheet name="housing14" sheetId="36" r:id="rId14"/>
     <sheet name="housing15" sheetId="37" r:id="rId15"/>
+    <sheet name="housing16" sheetId="38" r:id="rId16"/>
+    <sheet name="housing17" sheetId="39" r:id="rId17"/>
+    <sheet name="housing18" sheetId="40" r:id="rId18"/>
+    <sheet name="housing19" sheetId="41" r:id="rId19"/>
+    <sheet name="housing20" sheetId="42" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3739" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5164" uniqueCount="181">
   <si>
     <t>case</t>
     <phoneticPr fontId="1"/>
@@ -986,6 +991,101 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>housing16</t>
+  </si>
+  <si>
+    <t>housing16</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自家用車がEV, PEVの場合</t>
+    <rPh sb="0" eb="4">
+      <t>ジカヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mobilityAnswer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hasPrivateCar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mobilityAnswer</t>
+  </si>
+  <si>
+    <t>carIntensityFactorKey</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ev_driving-factor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>carChargingKey</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>charge-almost-at-home</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>privateCarAnnualMileage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>housing17</t>
+  </si>
+  <si>
+    <t>housing17</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>use-charging-spots-occasionally</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>phv_driving-factor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>housing18</t>
+  </si>
+  <si>
+    <t>housing18</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>use-charging-spots-sometimes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>housing19</t>
+  </si>
+  <si>
+    <t>housing19</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>use-charging-spots-usually</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>housing20</t>
+  </si>
+  <si>
+    <t>housing20</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1092,7 +1192,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1114,6 +1214,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1346,7 +1452,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1399,6 +1505,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2557,10 +2669,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:F197"/>
+  <dimension ref="A1:F287"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="D190" sqref="D190"/>
+    <sheetView showGridLines="0" topLeftCell="A249" workbookViewId="0">
+      <selection activeCell="C277" sqref="C277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -6136,6 +6248,1636 @@
         <v>30</v>
       </c>
       <c r="F197" s="2"/>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="B198" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C198" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D198" s="24">
+        <v>2</v>
+      </c>
+      <c r="E198" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F198" s="24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F199" s="1"/>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F200" s="1"/>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F201" s="1"/>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D202" s="1">
+        <v>750</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F202" s="1"/>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F203" s="1"/>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D204" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F204" s="1"/>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F205" s="1"/>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D206" s="1">
+        <v>15</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F206" s="1"/>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F207" s="1"/>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D208" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F208" s="1"/>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D209" s="1">
+        <v>200</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F209" s="1"/>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D210" s="1">
+        <v>2</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F210" s="1"/>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F211" s="1"/>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="B212" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="C212" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="D212" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E212" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F212" s="28"/>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="B213" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="C213" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="D213" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="E213" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F213" s="28"/>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="B214" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="C214" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="D214" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="E214" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F214" s="28"/>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="B215" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C215" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D215" s="29">
+        <v>5500</v>
+      </c>
+      <c r="E215" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F215" s="29"/>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="B216" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C216" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D216" s="24">
+        <v>2</v>
+      </c>
+      <c r="E216" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F216" s="24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F217" s="1"/>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F218" s="1"/>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F219" s="1"/>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D220" s="1">
+        <v>750</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F220" s="1"/>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F221" s="1"/>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D222" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F222" s="1"/>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F223" s="1"/>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D224" s="1">
+        <v>15</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F224" s="1"/>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F225" s="1"/>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D226" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F226" s="1"/>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D227" s="1">
+        <v>200</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F227" s="1"/>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D228" s="1">
+        <v>2</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F228" s="1"/>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F229" s="1"/>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="B230" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="C230" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="D230" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E230" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F230" s="28"/>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="B231" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="C231" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="D231" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="E231" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F231" s="28"/>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="B232" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="C232" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="D232" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="E232" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F232" s="28"/>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="B233" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C233" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D233" s="29">
+        <v>5500</v>
+      </c>
+      <c r="E233" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F233" s="29"/>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="B234" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C234" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D234" s="24">
+        <v>3</v>
+      </c>
+      <c r="E234" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F234" s="24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F235" s="1"/>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F236" s="1"/>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F237" s="1"/>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D238" s="1">
+        <v>750</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F238" s="1"/>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F239" s="1"/>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D240" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F240" s="1"/>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F241" s="1"/>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D242" s="1">
+        <v>15</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F242" s="1"/>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F243" s="1"/>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D244" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F244" s="1"/>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D245" s="1">
+        <v>200</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F245" s="1"/>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D246" s="1">
+        <v>2</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F246" s="1"/>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F247" s="1"/>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="B248" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="C248" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="D248" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E248" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F248" s="28"/>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="B249" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="C249" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="D249" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="E249" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F249" s="28"/>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="B250" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="C250" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="D250" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="E250" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F250" s="28"/>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="B251" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C251" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D251" s="29">
+        <v>5500</v>
+      </c>
+      <c r="E251" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F251" s="29"/>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="B252" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C252" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D252" s="24">
+        <v>3</v>
+      </c>
+      <c r="E252" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F252" s="24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F253" s="1"/>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F254" s="1"/>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F255" s="1"/>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D256" s="1">
+        <v>750</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F256" s="1"/>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F257" s="1"/>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D258" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F258" s="1"/>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F259" s="1"/>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D260" s="1">
+        <v>15</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F260" s="1"/>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F261" s="1"/>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D262" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F262" s="1"/>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D263" s="1">
+        <v>200</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F263" s="1"/>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="A264" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D264" s="1">
+        <v>2</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F264" s="1"/>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F265" s="1"/>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="B266" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="C266" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="D266" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E266" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F266" s="28"/>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="A267" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="B267" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="C267" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="D267" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="E267" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F267" s="28"/>
+    </row>
+    <row r="268" spans="1:6">
+      <c r="A268" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="B268" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="C268" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="D268" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="E268" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F268" s="28"/>
+    </row>
+    <row r="269" spans="1:6">
+      <c r="A269" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="B269" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C269" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D269" s="29">
+        <v>5500</v>
+      </c>
+      <c r="E269" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F269" s="29"/>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="A270" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="B270" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C270" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D270" s="24">
+        <v>3</v>
+      </c>
+      <c r="E270" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F270" s="24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
+      <c r="A271" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F271" s="1"/>
+    </row>
+    <row r="272" spans="1:6">
+      <c r="A272" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F272" s="1"/>
+    </row>
+    <row r="273" spans="1:6">
+      <c r="A273" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F273" s="1"/>
+    </row>
+    <row r="274" spans="1:6">
+      <c r="A274" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D274" s="1">
+        <v>750</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F274" s="1"/>
+    </row>
+    <row r="275" spans="1:6">
+      <c r="A275" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F275" s="1"/>
+    </row>
+    <row r="276" spans="1:6">
+      <c r="A276" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D276" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F276" s="1"/>
+    </row>
+    <row r="277" spans="1:6">
+      <c r="A277" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F277" s="1"/>
+    </row>
+    <row r="278" spans="1:6">
+      <c r="A278" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D278" s="1">
+        <v>15</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F278" s="1"/>
+    </row>
+    <row r="279" spans="1:6">
+      <c r="A279" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F279" s="1"/>
+    </row>
+    <row r="280" spans="1:6">
+      <c r="A280" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D280" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F280" s="1"/>
+    </row>
+    <row r="281" spans="1:6">
+      <c r="A281" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D281" s="1">
+        <v>200</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F281" s="1"/>
+    </row>
+    <row r="282" spans="1:6">
+      <c r="A282" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D282" s="1">
+        <v>2</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F282" s="1"/>
+    </row>
+    <row r="283" spans="1:6">
+      <c r="A283" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F283" s="1"/>
+    </row>
+    <row r="284" spans="1:6">
+      <c r="A284" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="B284" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="C284" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="D284" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E284" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F284" s="28"/>
+    </row>
+    <row r="285" spans="1:6">
+      <c r="A285" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="B285" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="C285" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="D285" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="E285" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F285" s="28"/>
+    </row>
+    <row r="286" spans="1:6">
+      <c r="A286" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="B286" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="C286" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="D286" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="E286" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F286" s="28"/>
+    </row>
+    <row r="287" spans="1:6">
+      <c r="A287" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="B287" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C287" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D287" s="29">
+        <v>5500</v>
+      </c>
+      <c r="E287" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F287" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -10221,7 +11963,7 @@
   </sheetPr>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
@@ -10816,6 +12558,3262 @@
       </c>
       <c r="D16" s="9">
         <v>0.63431981113992997</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L16" s="22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0.3105447626180039</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L17" s="22"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0.32756490664331728</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L18" s="22"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0.28008110814182374</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L19" s="22"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="9">
+        <v>3.7319211581766772E-2</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L20" s="22"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0.58446220328405674</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="L21" s="23"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598A5967-8E01-D247-AC14-C75A5506A7CF}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:L21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="206.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="116.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="5">
+        <v>12.332685267698961</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="9">
+        <v>2.6673147323010395</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1.9614220396155515</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="9">
+        <v>16.995171613521574</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" s="22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="9">
+        <v>2922.1053567840972</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1448.1782418750001</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="9">
+        <v>2038.8905200000004</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="9">
+        <v>54.817425919256138</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="12">
+        <v>103.55050000000001</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="L11" s="23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0.93069899951528912</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="L12" s="22"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="9">
+        <v>3.4180806918018205</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="L13" s="22"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0.54238644061711094</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L14" s="22"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="9">
+        <v>1.3782452040258706</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="L15" s="22"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0.53349389026516225</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L16" s="22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0.3105447626180039</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L17" s="22"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0.32756490664331728</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L18" s="22"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0.28008110814182374</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L19" s="22"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="9">
+        <v>3.7319211581766772E-2</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L20" s="22"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0.58446220328405674</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="L21" s="23"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB6D7DDD-8DD7-6347-8E00-007AE9BB6C97}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:L21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="206.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="116.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="5">
+        <v>12.332685267698961</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="9">
+        <v>2.6673147323010395</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1.9614220396155515</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="9">
+        <v>16.995171613521574</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" s="22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="9">
+        <v>3147.8152804482197</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1448.1782418750001</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="9">
+        <v>2038.8905200000004</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="9">
+        <v>54.817425919256138</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="12">
+        <v>103.55050000000001</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="L11" s="23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0.93069899951528912</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="L12" s="22"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="9">
+        <v>3.4180806918018205</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="L13" s="22"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0.54238644061711094</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L14" s="22"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="9">
+        <v>1.3782452040258706</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="L15" s="22"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0.53349389026516225</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L16" s="22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0.3105447626180039</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L17" s="22"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0.32756490664331728</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L18" s="22"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0.28008110814182374</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L19" s="22"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="9">
+        <v>3.7319211581766772E-2</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L20" s="22"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0.58446220328405674</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="L21" s="23"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003C4AEF-76DF-EC47-90DA-AC595C82E811}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:L21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="206.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="116.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="5">
+        <v>8.2217901784659748</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1.7782098215340265</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1.9614220396155515</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="9">
+        <v>11.330114409014385</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" s="22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="9">
+        <v>2089.1389401461411</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="9">
+        <v>965.45216125000013</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1359.2603466666669</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="9">
+        <v>54.817425919256138</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="12">
+        <v>103.55050000000001</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="L11" s="23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0.93069899951528912</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="L12" s="22"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="9">
+        <v>3.4180806918018205</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="L13" s="22"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0.54238644061711094</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L14" s="22"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="9">
+        <v>1.3782452040258706</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="L15" s="22"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0.39905932909880532</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L16" s="22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0.3105447626180039</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L17" s="22"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0.32756490664331728</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L18" s="22"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0.28008110814182374</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L19" s="22"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="9">
+        <v>3.7319211581766772E-2</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L20" s="22"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0.58446220328405674</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="L21" s="23"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{889070B6-3285-8841-B772-B889698E52C2}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:L21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="206.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="116.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="5">
+        <v>8.2217901784659748</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1.7782098215340265</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1.9614220396155515</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="9">
+        <v>11.330114409014385</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" s="22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="9">
+        <v>2201.9939019782023</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="9">
+        <v>965.45216125000013</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1359.2603466666669</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="9">
+        <v>54.817425919256138</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="12">
+        <v>103.55050000000001</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="L11" s="23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0.93069899951528912</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="L12" s="22"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="9">
+        <v>3.4180806918018205</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="L13" s="22"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0.54238644061711094</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L14" s="22"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="9">
+        <v>1.3782452040258706</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="L15" s="22"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0.39905932909880532</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>5</v>
@@ -11842,6 +16840,820 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A8F96A2-8E29-DD48-B412-2AE08A7EE2D6}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:L21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="206.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="116.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="5">
+        <v>8.2217901784659748</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1.7782098215340265</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1.9614220396155515</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="9">
+        <v>11.330114409014385</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" s="22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="9">
+        <v>2032.7114592301107</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="9">
+        <v>965.45216125000013</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1359.2603466666669</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="9">
+        <v>54.817425919256138</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="12">
+        <v>103.55050000000001</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="L11" s="23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0.93069899951528912</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="L12" s="22"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="9">
+        <v>3.4180806918018205</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="L13" s="22"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0.54238644061711094</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L14" s="22"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="9">
+        <v>1.3782452040258706</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="L15" s="22"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0.39905932909880532</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L16" s="22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0.3105447626180039</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L17" s="22"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0.32756490664331728</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L18" s="22"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0.28008110814182374</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L19" s="22"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="9">
+        <v>3.7319211581766772E-2</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L20" s="22"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0.58446220328405674</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="L21" s="23"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C240E0-4C08-064C-A395-F80D9625C290}">
   <sheetPr>

--- a/src/tests/housing-estimation.test-cases.xlsx
+++ b/src/tests/housing-estimation.test-cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naoto/Documents/projects/code-for-japan/JibungotoPlanet-backend/src/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B34F64D-7528-3049-97D1-F6B2100D40C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC95852-9F62-2544-A502-B1DDDF95DB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="7700" windowWidth="38400" windowHeight="21100" firstSheet="2" activeTab="19" xr2:uid="{504EB999-7D82-6E4A-B2A0-71B74C50F3FE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="11" xr2:uid="{504EB999-7D82-6E4A-B2A0-71B74C50F3FE}"/>
   </bookViews>
   <sheets>
     <sheet name="answers" sheetId="24" r:id="rId1"/>
@@ -24,15 +24,16 @@
     <sheet name="housing08" sheetId="31" r:id="rId9"/>
     <sheet name="housing09" sheetId="32" r:id="rId10"/>
     <sheet name="housing10" sheetId="33" r:id="rId11"/>
-    <sheet name="housing12" sheetId="34" r:id="rId12"/>
-    <sheet name="housing13" sheetId="35" r:id="rId13"/>
-    <sheet name="housing14" sheetId="36" r:id="rId14"/>
-    <sheet name="housing15" sheetId="37" r:id="rId15"/>
-    <sheet name="housing16" sheetId="38" r:id="rId16"/>
-    <sheet name="housing17" sheetId="39" r:id="rId17"/>
-    <sheet name="housing18" sheetId="40" r:id="rId18"/>
-    <sheet name="housing19" sheetId="41" r:id="rId19"/>
-    <sheet name="housing20" sheetId="42" r:id="rId20"/>
+    <sheet name="housing11" sheetId="43" r:id="rId12"/>
+    <sheet name="housing12" sheetId="34" r:id="rId13"/>
+    <sheet name="housing13" sheetId="35" r:id="rId14"/>
+    <sheet name="housing14" sheetId="36" r:id="rId15"/>
+    <sheet name="housing15" sheetId="37" r:id="rId16"/>
+    <sheet name="housing16" sheetId="38" r:id="rId17"/>
+    <sheet name="housing17" sheetId="39" r:id="rId18"/>
+    <sheet name="housing18" sheetId="40" r:id="rId19"/>
+    <sheet name="housing19" sheetId="41" r:id="rId20"/>
+    <sheet name="housing20" sheetId="42" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5164" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5427" uniqueCount="182">
   <si>
     <t>case</t>
     <phoneticPr fontId="1"/>
@@ -921,29 +922,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>後でhousing11にnovemberのテストを追加。</t>
-    <rPh sb="10" eb="11">
-      <t>アトデ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>parameterに間違いがあり、テストデータはnovemberのデータで作成。後で修正要。</t>
-    <rPh sb="10" eb="12">
-      <t>マチガイ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>アトデ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>housing13</t>
   </si>
   <si>
@@ -1084,6 +1062,17 @@
   </si>
   <si>
     <t>housing20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>november</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>housing11</t>
+  </si>
+  <si>
+    <t>housing11</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2669,10 +2658,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:F287"/>
+  <dimension ref="A1:F301"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A249" workbookViewId="0">
-      <selection activeCell="C277" sqref="C277"/>
+    <sheetView showGridLines="0" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="C147" sqref="C147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -5231,7 +5220,7 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="24" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="B142" s="24" t="s">
         <v>29</v>
@@ -5245,13 +5234,11 @@
       <c r="E142" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="F142" s="24" t="s">
-        <v>146</v>
-      </c>
+      <c r="F142" s="24"/>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="1" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>54</v>
@@ -5269,7 +5256,7 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="1" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>54</v>
@@ -5287,7 +5274,7 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="1" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>54</v>
@@ -5305,7 +5292,7 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="1" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>54</v>
@@ -5323,7 +5310,7 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="1" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>54</v>
@@ -5332,18 +5319,16 @@
         <v>38</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F147" s="26" t="s">
-        <v>147</v>
-      </c>
+      <c r="F147" s="26"/>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="1" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>54</v>
@@ -5361,7 +5346,7 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="1" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>54</v>
@@ -5379,7 +5364,7 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="1" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>54</v>
@@ -5397,7 +5382,7 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="1" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>54</v>
@@ -5406,18 +5391,16 @@
         <v>42</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F151" s="26" t="s">
-        <v>147</v>
-      </c>
+      <c r="F151" s="26"/>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="1" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>54</v>
@@ -5435,7 +5418,7 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="1" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>54</v>
@@ -5453,7 +5436,7 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="1" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>54</v>
@@ -5471,7 +5454,7 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="2" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>54</v>
@@ -5489,7 +5472,7 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="24" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B156" s="24" t="s">
         <v>29</v>
@@ -5503,13 +5486,11 @@
       <c r="E156" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="F156" s="24" t="s">
-        <v>150</v>
-      </c>
+      <c r="F156" s="24"/>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>54</v>
@@ -5527,7 +5508,7 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>54</v>
@@ -5545,7 +5526,7 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>54</v>
@@ -5563,7 +5544,7 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>54</v>
@@ -5581,7 +5562,7 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>54</v>
@@ -5590,16 +5571,16 @@
         <v>38</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F161" s="1"/>
+      <c r="F161" s="26"/>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>54</v>
@@ -5608,7 +5589,7 @@
         <v>39</v>
       </c>
       <c r="D162" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>23</v>
@@ -5617,7 +5598,7 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>54</v>
@@ -5635,7 +5616,7 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>54</v>
@@ -5653,7 +5634,7 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>54</v>
@@ -5662,16 +5643,16 @@
         <v>42</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F165" s="1"/>
+      <c r="F165" s="26"/>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>54</v>
@@ -5689,7 +5670,7 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>54</v>
@@ -5707,7 +5688,7 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>54</v>
@@ -5725,7 +5706,7 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="2" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>54</v>
@@ -5743,7 +5724,7 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="24" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B170" s="24" t="s">
         <v>29</v>
@@ -5758,12 +5739,12 @@
         <v>47</v>
       </c>
       <c r="F170" s="24" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>54</v>
@@ -5781,7 +5762,7 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>54</v>
@@ -5799,7 +5780,7 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>54</v>
@@ -5817,7 +5798,7 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>54</v>
@@ -5835,7 +5816,7 @@
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>54</v>
@@ -5853,7 +5834,7 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>54</v>
@@ -5862,7 +5843,7 @@
         <v>39</v>
       </c>
       <c r="D176" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>23</v>
@@ -5871,7 +5852,7 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>54</v>
@@ -5889,7 +5870,7 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>54</v>
@@ -5907,7 +5888,7 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>54</v>
@@ -5925,7 +5906,7 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>54</v>
@@ -5934,7 +5915,7 @@
         <v>43</v>
       </c>
       <c r="D180" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>23</v>
@@ -5943,7 +5924,7 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>54</v>
@@ -5961,7 +5942,7 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>54</v>
@@ -5979,7 +5960,7 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>54</v>
@@ -5997,7 +5978,7 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="24" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B184" s="24" t="s">
         <v>29</v>
@@ -6012,12 +5993,12 @@
         <v>47</v>
       </c>
       <c r="F184" s="24" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>54</v>
@@ -6035,7 +6016,7 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>54</v>
@@ -6053,7 +6034,7 @@
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>54</v>
@@ -6071,7 +6052,7 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>54</v>
@@ -6089,7 +6070,7 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>54</v>
@@ -6107,7 +6088,7 @@
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>54</v>
@@ -6116,7 +6097,7 @@
         <v>39</v>
       </c>
       <c r="D190" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>23</v>
@@ -6125,7 +6106,7 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>54</v>
@@ -6143,7 +6124,7 @@
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>54</v>
@@ -6161,7 +6142,7 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>54</v>
@@ -6179,7 +6160,7 @@
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>54</v>
@@ -6197,7 +6178,7 @@
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>54</v>
@@ -6215,7 +6196,7 @@
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>54</v>
@@ -6233,7 +6214,7 @@
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>54</v>
@@ -6251,7 +6232,7 @@
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="24" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B198" s="24" t="s">
         <v>29</v>
@@ -6260,18 +6241,18 @@
         <v>33</v>
       </c>
       <c r="D198" s="24">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E198" s="24" t="s">
         <v>47</v>
       </c>
       <c r="F198" s="24" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>54</v>
@@ -6280,7 +6261,7 @@
         <v>34</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>16</v>
@@ -6289,7 +6270,7 @@
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>54</v>
@@ -6307,7 +6288,7 @@
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>54</v>
@@ -6316,7 +6297,7 @@
         <v>36</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>16</v>
@@ -6325,7 +6306,7 @@
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>54</v>
@@ -6343,7 +6324,7 @@
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>54</v>
@@ -6352,7 +6333,7 @@
         <v>38</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>30</v>
@@ -6361,7 +6342,7 @@
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>54</v>
@@ -6370,7 +6351,7 @@
         <v>39</v>
       </c>
       <c r="D204" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>23</v>
@@ -6379,7 +6360,7 @@
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>54</v>
@@ -6397,7 +6378,7 @@
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>54</v>
@@ -6415,7 +6396,7 @@
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>54</v>
@@ -6424,7 +6405,7 @@
         <v>42</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>16</v>
@@ -6433,7 +6414,7 @@
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>54</v>
@@ -6442,7 +6423,7 @@
         <v>43</v>
       </c>
       <c r="D208" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>23</v>
@@ -6451,7 +6432,7 @@
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>54</v>
@@ -6469,7 +6450,7 @@
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>54</v>
@@ -6486,163 +6467,163 @@
       <c r="F210" s="1"/>
     </row>
     <row r="211" spans="1:6">
-      <c r="A211" s="1" t="s">
+      <c r="A211" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F211" s="2"/>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="B212" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C212" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D212" s="24">
+        <v>2</v>
+      </c>
+      <c r="E212" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F212" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="B211" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D211" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E211" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F211" s="1"/>
-    </row>
-    <row r="212" spans="1:6">
-      <c r="A212" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="B212" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="C212" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="D212" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="E212" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="F212" s="28"/>
     </row>
     <row r="213" spans="1:6">
-      <c r="A213" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="B213" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="C213" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="D213" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="E213" s="28" t="s">
+      <c r="A213" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E213" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F213" s="28"/>
+      <c r="F213" s="1"/>
     </row>
     <row r="214" spans="1:6">
-      <c r="A214" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="B214" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="C214" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="D214" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="E214" s="28" t="s">
+      <c r="A214" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E214" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F214" s="28"/>
+      <c r="F214" s="1"/>
     </row>
     <row r="215" spans="1:6">
-      <c r="A215" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="B215" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C215" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="D215" s="29">
-        <v>5500</v>
-      </c>
-      <c r="E215" s="29" t="s">
+      <c r="A215" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F215" s="1"/>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D216" s="1">
+        <v>750</v>
+      </c>
+      <c r="E216" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F215" s="29"/>
-    </row>
-    <row r="216" spans="1:6">
-      <c r="A216" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="B216" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C216" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D216" s="24">
-        <v>2</v>
-      </c>
-      <c r="E216" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="F216" s="24" t="s">
-        <v>159</v>
-      </c>
+      <c r="F216" s="1"/>
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="1" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F217" s="1"/>
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="1" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D218" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
+      </c>
+      <c r="D218" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F218" s="1"/>
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="1" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="E219" s="1" t="s">
         <v>16</v>
@@ -6651,16 +6632,16 @@
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="1" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D220" s="1">
-        <v>750</v>
+        <v>15</v>
       </c>
       <c r="E220" s="1" t="s">
         <v>22</v>
@@ -6669,31 +6650,31 @@
     </row>
     <row r="221" spans="1:6">
       <c r="A221" s="1" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F221" s="1"/>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="1" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D222" s="1" t="b">
         <v>1</v>
@@ -6705,34 +6686,34 @@
     </row>
     <row r="223" spans="1:6">
       <c r="A223" s="1" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D223" s="1" t="s">
-        <v>66</v>
+        <v>44</v>
+      </c>
+      <c r="D223" s="1">
+        <v>200</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F223" s="1"/>
     </row>
     <row r="224" spans="1:6">
       <c r="A224" s="1" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D224" s="1">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>22</v>
@@ -6741,234 +6722,234 @@
     </row>
     <row r="225" spans="1:6">
       <c r="A225" s="1" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="E225" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F225" s="1"/>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="B226" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="C226" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="D226" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E226" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F226" s="28"/>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="B227" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="C227" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="D227" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="E227" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F225" s="1"/>
-    </row>
-    <row r="226" spans="1:6">
-      <c r="A226" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D226" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E226" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F226" s="1"/>
-    </row>
-    <row r="227" spans="1:6">
-      <c r="A227" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C227" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D227" s="1">
-        <v>200</v>
-      </c>
-      <c r="E227" s="1" t="s">
+      <c r="F227" s="28"/>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="B228" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="C228" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="D228" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="E228" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F228" s="28"/>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="B229" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="C229" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="D229" s="29">
+        <v>5500</v>
+      </c>
+      <c r="E229" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F227" s="1"/>
-    </row>
-    <row r="228" spans="1:6">
-      <c r="A228" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D228" s="1">
+      <c r="F229" s="29"/>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="B230" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C230" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D230" s="24">
         <v>2</v>
       </c>
-      <c r="E228" s="1" t="s">
+      <c r="E230" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F230" s="24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F231" s="1"/>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F232" s="1"/>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F233" s="1"/>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D234" s="1">
+        <v>750</v>
+      </c>
+      <c r="E234" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F228" s="1"/>
-    </row>
-    <row r="229" spans="1:6">
-      <c r="A229" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C229" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D229" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E229" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F229" s="1"/>
-    </row>
-    <row r="230" spans="1:6">
-      <c r="A230" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="B230" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="C230" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="D230" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="E230" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="F230" s="28"/>
-    </row>
-    <row r="231" spans="1:6">
-      <c r="A231" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="B231" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="C231" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="D231" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="E231" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F231" s="28"/>
-    </row>
-    <row r="232" spans="1:6">
-      <c r="A232" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="B232" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="C232" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="D232" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="E232" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F232" s="28"/>
-    </row>
-    <row r="233" spans="1:6">
-      <c r="A233" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="B233" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C233" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="D233" s="29">
-        <v>5500</v>
-      </c>
-      <c r="E233" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F233" s="29"/>
-    </row>
-    <row r="234" spans="1:6">
-      <c r="A234" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="B234" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C234" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D234" s="24">
-        <v>3</v>
-      </c>
-      <c r="E234" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="F234" s="24" t="s">
-        <v>159</v>
-      </c>
+      <c r="F234" s="1"/>
     </row>
     <row r="235" spans="1:6">
       <c r="A235" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F235" s="1"/>
     </row>
     <row r="236" spans="1:6">
       <c r="A236" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D236" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
+      </c>
+      <c r="D236" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F236" s="1"/>
     </row>
     <row r="237" spans="1:6">
       <c r="A237" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="E237" s="1" t="s">
         <v>16</v>
@@ -6977,16 +6958,16 @@
     </row>
     <row r="238" spans="1:6">
       <c r="A238" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D238" s="1">
-        <v>750</v>
+        <v>15</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>22</v>
@@ -6995,31 +6976,31 @@
     </row>
     <row r="239" spans="1:6">
       <c r="A239" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F239" s="1"/>
     </row>
     <row r="240" spans="1:6">
       <c r="A240" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D240" s="1" t="b">
         <v>1</v>
@@ -7031,34 +7012,34 @@
     </row>
     <row r="241" spans="1:6">
       <c r="A241" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D241" s="1" t="s">
-        <v>66</v>
+        <v>44</v>
+      </c>
+      <c r="D241" s="1">
+        <v>200</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F241" s="1"/>
     </row>
     <row r="242" spans="1:6">
       <c r="A242" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D242" s="1">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E242" s="1" t="s">
         <v>22</v>
@@ -7067,234 +7048,234 @@
     </row>
     <row r="243" spans="1:6">
       <c r="A243" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="E243" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F243" s="1"/>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="B244" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="C244" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="D244" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E244" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F244" s="28"/>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="B245" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="C245" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="D245" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="E245" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F243" s="1"/>
-    </row>
-    <row r="244" spans="1:6">
-      <c r="A244" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B244" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D244" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E244" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F244" s="1"/>
-    </row>
-    <row r="245" spans="1:6">
-      <c r="A245" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B245" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C245" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D245" s="1">
-        <v>200</v>
-      </c>
-      <c r="E245" s="1" t="s">
+      <c r="F245" s="28"/>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="B246" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="C246" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="D246" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="E246" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F246" s="28"/>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="B247" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="C247" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="D247" s="29">
+        <v>5500</v>
+      </c>
+      <c r="E247" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F245" s="1"/>
-    </row>
-    <row r="246" spans="1:6">
-      <c r="A246" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C246" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D246" s="1">
-        <v>2</v>
-      </c>
-      <c r="E246" s="1" t="s">
+      <c r="F247" s="29"/>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="B248" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C248" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D248" s="24">
+        <v>3</v>
+      </c>
+      <c r="E248" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F248" s="24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F249" s="1"/>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F250" s="1"/>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F251" s="1"/>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D252" s="1">
+        <v>750</v>
+      </c>
+      <c r="E252" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F246" s="1"/>
-    </row>
-    <row r="247" spans="1:6">
-      <c r="A247" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B247" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C247" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D247" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E247" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F247" s="1"/>
-    </row>
-    <row r="248" spans="1:6">
-      <c r="A248" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="B248" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="C248" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="D248" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="E248" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="F248" s="28"/>
-    </row>
-    <row r="249" spans="1:6">
-      <c r="A249" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="B249" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="C249" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="D249" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="E249" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F249" s="28"/>
-    </row>
-    <row r="250" spans="1:6">
-      <c r="A250" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="B250" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="C250" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="D250" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="E250" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F250" s="28"/>
-    </row>
-    <row r="251" spans="1:6">
-      <c r="A251" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="B251" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C251" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="D251" s="29">
-        <v>5500</v>
-      </c>
-      <c r="E251" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F251" s="29"/>
-    </row>
-    <row r="252" spans="1:6">
-      <c r="A252" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="B252" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C252" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D252" s="24">
-        <v>3</v>
-      </c>
-      <c r="E252" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="F252" s="24" t="s">
-        <v>159</v>
-      </c>
+      <c r="F252" s="1"/>
     </row>
     <row r="253" spans="1:6">
       <c r="A253" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F253" s="1"/>
     </row>
     <row r="254" spans="1:6">
       <c r="A254" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D254" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
+      </c>
+      <c r="D254" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F254" s="1"/>
     </row>
     <row r="255" spans="1:6">
       <c r="A255" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="E255" s="1" t="s">
         <v>16</v>
@@ -7303,16 +7284,16 @@
     </row>
     <row r="256" spans="1:6">
       <c r="A256" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D256" s="1">
-        <v>750</v>
+        <v>15</v>
       </c>
       <c r="E256" s="1" t="s">
         <v>22</v>
@@ -7321,31 +7302,31 @@
     </row>
     <row r="257" spans="1:6">
       <c r="A257" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F257" s="1"/>
     </row>
     <row r="258" spans="1:6">
       <c r="A258" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D258" s="1" t="b">
         <v>1</v>
@@ -7357,34 +7338,34 @@
     </row>
     <row r="259" spans="1:6">
       <c r="A259" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D259" s="1" t="s">
-        <v>66</v>
+        <v>44</v>
+      </c>
+      <c r="D259" s="1">
+        <v>200</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F259" s="1"/>
     </row>
     <row r="260" spans="1:6">
       <c r="A260" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D260" s="1">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E260" s="1" t="s">
         <v>22</v>
@@ -7393,234 +7374,234 @@
     </row>
     <row r="261" spans="1:6">
       <c r="A261" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="E261" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F261" s="1"/>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="B262" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="C262" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="D262" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E262" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F262" s="28"/>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="B263" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="C263" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="D263" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="E263" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F261" s="1"/>
-    </row>
-    <row r="262" spans="1:6">
-      <c r="A262" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B262" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D262" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E262" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F262" s="1"/>
-    </row>
-    <row r="263" spans="1:6">
-      <c r="A263" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B263" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C263" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D263" s="1">
-        <v>200</v>
-      </c>
-      <c r="E263" s="1" t="s">
+      <c r="F263" s="28"/>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="A264" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="B264" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="C264" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="D264" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="E264" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F264" s="28"/>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B265" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="C265" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="D265" s="29">
+        <v>5500</v>
+      </c>
+      <c r="E265" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F263" s="1"/>
-    </row>
-    <row r="264" spans="1:6">
-      <c r="A264" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B264" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C264" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D264" s="1">
-        <v>2</v>
-      </c>
-      <c r="E264" s="1" t="s">
+      <c r="F265" s="29"/>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="B266" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C266" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D266" s="24">
+        <v>3</v>
+      </c>
+      <c r="E266" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F266" s="24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="A267" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F267" s="1"/>
+    </row>
+    <row r="268" spans="1:6">
+      <c r="A268" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F268" s="1"/>
+    </row>
+    <row r="269" spans="1:6">
+      <c r="A269" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F269" s="1"/>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="A270" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D270" s="1">
+        <v>750</v>
+      </c>
+      <c r="E270" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F264" s="1"/>
-    </row>
-    <row r="265" spans="1:6">
-      <c r="A265" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B265" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C265" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D265" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E265" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F265" s="1"/>
-    </row>
-    <row r="266" spans="1:6">
-      <c r="A266" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="B266" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="C266" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="D266" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="E266" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="F266" s="28"/>
-    </row>
-    <row r="267" spans="1:6">
-      <c r="A267" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="B267" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="C267" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="D267" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="E267" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F267" s="28"/>
-    </row>
-    <row r="268" spans="1:6">
-      <c r="A268" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="B268" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="C268" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="D268" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="E268" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F268" s="28"/>
-    </row>
-    <row r="269" spans="1:6">
-      <c r="A269" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="B269" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C269" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="D269" s="29">
-        <v>5500</v>
-      </c>
-      <c r="E269" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F269" s="29"/>
-    </row>
-    <row r="270" spans="1:6">
-      <c r="A270" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="B270" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C270" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D270" s="24">
-        <v>3</v>
-      </c>
-      <c r="E270" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="F270" s="24" t="s">
-        <v>159</v>
-      </c>
+      <c r="F270" s="1"/>
     </row>
     <row r="271" spans="1:6">
       <c r="A271" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F271" s="1"/>
     </row>
     <row r="272" spans="1:6">
       <c r="A272" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D272" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
+      </c>
+      <c r="D272" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F272" s="1"/>
     </row>
     <row r="273" spans="1:6">
       <c r="A273" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="E273" s="1" t="s">
         <v>16</v>
@@ -7629,16 +7610,16 @@
     </row>
     <row r="274" spans="1:6">
       <c r="A274" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D274" s="1">
-        <v>750</v>
+        <v>15</v>
       </c>
       <c r="E274" s="1" t="s">
         <v>22</v>
@@ -7647,31 +7628,31 @@
     </row>
     <row r="275" spans="1:6">
       <c r="A275" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F275" s="1"/>
     </row>
     <row r="276" spans="1:6">
       <c r="A276" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D276" s="1" t="b">
         <v>1</v>
@@ -7683,34 +7664,34 @@
     </row>
     <row r="277" spans="1:6">
       <c r="A277" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D277" s="1" t="s">
-        <v>66</v>
+        <v>44</v>
+      </c>
+      <c r="D277" s="1">
+        <v>200</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F277" s="1"/>
     </row>
     <row r="278" spans="1:6">
       <c r="A278" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D278" s="1">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E278" s="1" t="s">
         <v>22</v>
@@ -7719,165 +7700,419 @@
     </row>
     <row r="279" spans="1:6">
       <c r="A279" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C279" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F279" s="1"/>
+    </row>
+    <row r="280" spans="1:6">
+      <c r="A280" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="B280" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="C280" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="D280" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E280" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F280" s="28"/>
+    </row>
+    <row r="281" spans="1:6">
+      <c r="A281" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="B281" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="C281" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="D281" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="E281" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F281" s="28"/>
+    </row>
+    <row r="282" spans="1:6">
+      <c r="A282" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="B282" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="C282" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="D282" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="E282" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F282" s="28"/>
+    </row>
+    <row r="283" spans="1:6">
+      <c r="A283" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="B283" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="C283" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="D283" s="29">
+        <v>5500</v>
+      </c>
+      <c r="E283" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F283" s="29"/>
+    </row>
+    <row r="284" spans="1:6">
+      <c r="A284" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="B284" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C284" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D284" s="24">
+        <v>3</v>
+      </c>
+      <c r="E284" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F284" s="24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
+      <c r="A285" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F285" s="1"/>
+    </row>
+    <row r="286" spans="1:6">
+      <c r="A286" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F286" s="1"/>
+    </row>
+    <row r="287" spans="1:6">
+      <c r="A287" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F287" s="1"/>
+    </row>
+    <row r="288" spans="1:6">
+      <c r="A288" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D288" s="1">
+        <v>750</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F288" s="1"/>
+    </row>
+    <row r="289" spans="1:6">
+      <c r="A289" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F289" s="1"/>
+    </row>
+    <row r="290" spans="1:6">
+      <c r="A290" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D290" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F290" s="1"/>
+    </row>
+    <row r="291" spans="1:6">
+      <c r="A291" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F291" s="1"/>
+    </row>
+    <row r="292" spans="1:6">
+      <c r="A292" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D292" s="1">
+        <v>15</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F292" s="1"/>
+    </row>
+    <row r="293" spans="1:6">
+      <c r="A293" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C293" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D279" s="1" t="s">
+      <c r="D293" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E279" s="1" t="s">
+      <c r="E293" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F279" s="1"/>
-    </row>
-    <row r="280" spans="1:6">
-      <c r="A280" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B280" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C280" s="1" t="s">
+      <c r="F293" s="1"/>
+    </row>
+    <row r="294" spans="1:6">
+      <c r="A294" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C294" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D280" s="1" t="b">
+      <c r="D294" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E280" s="1" t="s">
+      <c r="E294" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F280" s="1"/>
-    </row>
-    <row r="281" spans="1:6">
-      <c r="A281" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B281" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C281" s="1" t="s">
+      <c r="F294" s="1"/>
+    </row>
+    <row r="295" spans="1:6">
+      <c r="A295" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C295" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D281" s="1">
+      <c r="D295" s="1">
         <v>200</v>
       </c>
-      <c r="E281" s="1" t="s">
+      <c r="E295" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F281" s="1"/>
-    </row>
-    <row r="282" spans="1:6">
-      <c r="A282" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B282" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C282" s="1" t="s">
+      <c r="F295" s="1"/>
+    </row>
+    <row r="296" spans="1:6">
+      <c r="A296" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C296" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D282" s="1">
+      <c r="D296" s="1">
         <v>2</v>
       </c>
-      <c r="E282" s="1" t="s">
+      <c r="E296" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F282" s="1"/>
-    </row>
-    <row r="283" spans="1:6">
-      <c r="A283" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B283" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C283" s="1" t="s">
+      <c r="F296" s="1"/>
+    </row>
+    <row r="297" spans="1:6">
+      <c r="A297" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C297" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D283" s="1" t="s">
+      <c r="D297" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E283" s="1" t="s">
+      <c r="E297" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F283" s="1"/>
-    </row>
-    <row r="284" spans="1:6">
-      <c r="A284" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="B284" s="28" t="s">
+      <c r="F297" s="1"/>
+    </row>
+    <row r="298" spans="1:6">
+      <c r="A298" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="B298" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="C298" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="D298" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E298" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F298" s="28"/>
+    </row>
+    <row r="299" spans="1:6">
+      <c r="A299" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="B299" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="C284" s="28" t="s">
+      <c r="C299" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="D284" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="E284" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="F284" s="28"/>
-    </row>
-    <row r="285" spans="1:6">
-      <c r="A285" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="B285" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="C285" s="28" t="s">
+      <c r="D299" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="E299" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F299" s="28"/>
+    </row>
+    <row r="300" spans="1:6">
+      <c r="A300" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="B300" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="C300" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="D285" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="E285" s="28" t="s">
+      <c r="D300" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="E300" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F285" s="28"/>
-    </row>
-    <row r="286" spans="1:6">
-      <c r="A286" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="B286" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="C286" s="28" t="s">
+      <c r="F300" s="28"/>
+    </row>
+    <row r="301" spans="1:6">
+      <c r="A301" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="B301" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="C301" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="D286" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="E286" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F286" s="28"/>
-    </row>
-    <row r="287" spans="1:6">
-      <c r="A287" s="29" t="s">
-        <v>179</v>
-      </c>
-      <c r="B287" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C287" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="D287" s="29">
+      <c r="D301" s="29">
         <v>5500</v>
       </c>
-      <c r="E287" s="29" t="s">
+      <c r="E301" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F287" s="29"/>
+      <c r="F301" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -9515,14 +9750,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96DC35CE-6984-E84B-8749-78778D20AA5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94505361-6B57-6A4F-8C4F-FE522C046915}">
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -10329,6 +10564,820 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96DC35CE-6984-E84B-8749-78778D20AA5E}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:L21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="206.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="116.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="5">
+        <v>32.061793136718009</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="9">
+        <v>6.93432868197345</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1.9614220396155515</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="9">
+        <v>44.18305217136362</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" s="22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1888.6074413885885</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="9">
+        <v>842.57643163636362</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="9">
+        <v>815.5562080000002</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="9">
+        <v>54.817425919256138</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="12">
+        <v>103.55050000000001</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="L11" s="23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0.93069899951528912</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="L12" s="22"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="9">
+        <v>3.4180806918018205</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="L13" s="22"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0.54238644061711094</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L14" s="22"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="9">
+        <v>1.3782452040258706</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="L15" s="22"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0.63431981113992997</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L16" s="22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0.3105447626180039</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L17" s="22"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0.32756490664331728</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L18" s="22"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0.28008110814182374</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L19" s="22"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="9">
+        <v>3.7319211581766772E-2</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L20" s="22"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0.58446220328405674</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="L21" s="23"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEDD4E51-71D0-0D46-BB23-60AF79B6348B}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -11142,7 +12191,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A25FAA-9522-5144-BF7F-5E62F69C550C}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -11956,7 +13005,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14FBCF59-4B44-754D-8FC9-02F18F1B953E}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -12770,7 +13819,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598A5967-8E01-D247-AC14-C75A5506A7CF}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -13584,7 +14633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB6D7DDD-8DD7-6347-8E00-007AE9BB6C97}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -14398,7 +15447,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003C4AEF-76DF-EC47-90DA-AC595C82E811}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -14628,820 +15677,6 @@
       </c>
       <c r="D6" s="9">
         <v>2089.1389401461411</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="L6" s="16" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="9">
-        <v>0</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="L7" s="22" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="9">
-        <v>965.45216125000013</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="L8" s="22" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="9">
-        <v>1359.2603466666669</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="L9" s="22" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="9">
-        <v>54.817425919256138</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="L10" s="22" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="12">
-        <v>103.55050000000001</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="K11" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="L11" s="23" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="9">
-        <v>0.93069899951528912</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="L12" s="22"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="9">
-        <v>3.4180806918018205</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="L13" s="22"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="9">
-        <v>0.54238644061711094</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="L14" s="22"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="9">
-        <v>1.3782452040258706</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="L15" s="22"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="9">
-        <v>0.39905932909880532</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="L16" s="22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="9">
-        <v>0.3105447626180039</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="L17" s="22"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="9">
-        <v>0.32756490664331728</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="L18" s="22"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="9">
-        <v>0.28008110814182374</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="L19" s="22"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="9">
-        <v>3.7319211581766772E-2</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="L20" s="22"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="12">
-        <v>0.58446220328405674</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="J21" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="K21" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="L21" s="23"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{889070B6-3285-8841-B772-B889698E52C2}">
-  <sheetPr>
-    <tabColor theme="0"/>
-  </sheetPr>
-  <dimension ref="A1:L21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
-  <cols>
-    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="206.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="116.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="5">
-        <v>8.2217901784659748</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="9">
-        <v>1.7782098215340265</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="L3" s="22" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="9">
-        <v>1.9614220396155515</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="L4" s="22" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="9">
-        <v>11.330114409014385</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="L5" s="22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="9">
-        <v>2201.9939019782023</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>21</v>
@@ -16841,13 +17076,827 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{889070B6-3285-8841-B772-B889698E52C2}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:L21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="206.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="116.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="5">
+        <v>8.2217901784659748</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1.7782098215340265</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1.9614220396155515</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="9">
+        <v>11.330114409014385</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" s="22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="9">
+        <v>2201.9939019782023</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="9">
+        <v>965.45216125000013</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1359.2603466666669</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="9">
+        <v>54.817425919256138</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="12">
+        <v>103.55050000000001</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="L11" s="23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0.93069899951528912</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="L12" s="22"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="9">
+        <v>3.4180806918018205</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="L13" s="22"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0.54238644061711094</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L14" s="22"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="9">
+        <v>1.3782452040258706</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="L15" s="22"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0.39905932909880532</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L16" s="22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0.3105447626180039</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L17" s="22"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0.32756490664331728</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L18" s="22"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0.28008110814182374</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L19" s="22"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="9">
+        <v>3.7319211581766772E-2</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L20" s="22"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0.58446220328405674</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="L21" s="23"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A8F96A2-8E29-DD48-B412-2AE08A7EE2D6}">
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>

--- a/src/tests/housing-estimation.test-cases.xlsx
+++ b/src/tests/housing-estimation.test-cases.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naoto/Documents/projects/code-for-japan/JibungotoPlanet-backend/src/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC95852-9F62-2544-A502-B1DDDF95DB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCA9DC3-9C4F-4D43-869A-CC0DF677D33A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="11" xr2:uid="{504EB999-7D82-6E4A-B2A0-71B74C50F3FE}"/>
+    <workbookView xWindow="2180" yWindow="2800" windowWidth="40760" windowHeight="23140" xr2:uid="{504EB999-7D82-6E4A-B2A0-71B74C50F3FE}"/>
   </bookViews>
   <sheets>
-    <sheet name="answers" sheetId="24" r:id="rId1"/>
+    <sheet name="answers" sheetId="44" r:id="rId1"/>
     <sheet name="housing01" sheetId="2" r:id="rId2"/>
     <sheet name="housing02" sheetId="25" r:id="rId3"/>
     <sheet name="housing03" sheetId="26" r:id="rId4"/>
@@ -998,14 +998,6 @@
     <t>mobilityAnswer</t>
   </si>
   <si>
-    <t>carIntensityFactorKey</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ev_driving-factor</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>carChargingKey</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1026,10 +1018,6 @@
   </si>
   <si>
     <t>use-charging-spots-occasionally</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>phv_driving-factor</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1073,6 +1061,18 @@
   </si>
   <si>
     <t>housing11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>carIntensityFactorFirstKey</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>phv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ev</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1536,10 +1536,10 @@
     <xdr:ext cx="7645939" cy="6036140"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B7E342E-36A9-EB4A-927C-3823171D6F2F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A167AD5F-C780-664B-9423-32938C29FBF1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2654,14 +2654,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F736131-A148-C54D-A8DD-F6AD54D9B482}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80174880-F183-4840-8399-565F4B8ED556}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:F301"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="C147" sqref="C147"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A188" workbookViewId="0">
+      <selection activeCell="C225" sqref="C225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -5220,7 +5220,7 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="24" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B142" s="24" t="s">
         <v>29</v>
@@ -5238,7 +5238,7 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>54</v>
@@ -5256,7 +5256,7 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>54</v>
@@ -5274,7 +5274,7 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>54</v>
@@ -5292,7 +5292,7 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>54</v>
@@ -5310,7 +5310,7 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>54</v>
@@ -5319,7 +5319,7 @@
         <v>38</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>30</v>
@@ -5328,7 +5328,7 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>54</v>
@@ -5346,7 +5346,7 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>54</v>
@@ -5364,7 +5364,7 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>54</v>
@@ -5382,7 +5382,7 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>54</v>
@@ -5391,7 +5391,7 @@
         <v>42</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>16</v>
@@ -5400,7 +5400,7 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>54</v>
@@ -5418,7 +5418,7 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>54</v>
@@ -5436,7 +5436,7 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>54</v>
@@ -5454,7 +5454,7 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>54</v>
@@ -6764,10 +6764,10 @@
         <v>160</v>
       </c>
       <c r="C227" s="28" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="D227" s="28" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="E227" s="28" t="s">
         <v>16</v>
@@ -6782,10 +6782,10 @@
         <v>160</v>
       </c>
       <c r="C228" s="28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D228" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E228" s="28" t="s">
         <v>16</v>
@@ -6800,7 +6800,7 @@
         <v>160</v>
       </c>
       <c r="C229" s="29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D229" s="29">
         <v>5500</v>
@@ -6812,7 +6812,7 @@
     </row>
     <row r="230" spans="1:6">
       <c r="A230" s="24" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B230" s="24" t="s">
         <v>29</v>
@@ -6832,7 +6832,7 @@
     </row>
     <row r="231" spans="1:6">
       <c r="A231" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>54</v>
@@ -6850,7 +6850,7 @@
     </row>
     <row r="232" spans="1:6">
       <c r="A232" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>54</v>
@@ -6868,7 +6868,7 @@
     </row>
     <row r="233" spans="1:6">
       <c r="A233" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>54</v>
@@ -6886,7 +6886,7 @@
     </row>
     <row r="234" spans="1:6">
       <c r="A234" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>54</v>
@@ -6904,7 +6904,7 @@
     </row>
     <row r="235" spans="1:6">
       <c r="A235" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>54</v>
@@ -6922,7 +6922,7 @@
     </row>
     <row r="236" spans="1:6">
       <c r="A236" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>54</v>
@@ -6940,7 +6940,7 @@
     </row>
     <row r="237" spans="1:6">
       <c r="A237" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>54</v>
@@ -6958,7 +6958,7 @@
     </row>
     <row r="238" spans="1:6">
       <c r="A238" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>54</v>
@@ -6976,7 +6976,7 @@
     </row>
     <row r="239" spans="1:6">
       <c r="A239" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>54</v>
@@ -6994,7 +6994,7 @@
     </row>
     <row r="240" spans="1:6">
       <c r="A240" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>54</v>
@@ -7012,7 +7012,7 @@
     </row>
     <row r="241" spans="1:6">
       <c r="A241" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>54</v>
@@ -7030,7 +7030,7 @@
     </row>
     <row r="242" spans="1:6">
       <c r="A242" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>54</v>
@@ -7048,7 +7048,7 @@
     </row>
     <row r="243" spans="1:6">
       <c r="A243" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>54</v>
@@ -7066,7 +7066,7 @@
     </row>
     <row r="244" spans="1:6">
       <c r="A244" s="28" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B244" s="28" t="s">
         <v>158</v>
@@ -7084,16 +7084,16 @@
     </row>
     <row r="245" spans="1:6">
       <c r="A245" s="28" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B245" s="28" t="s">
         <v>160</v>
       </c>
       <c r="C245" s="28" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="D245" s="28" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="E245" s="28" t="s">
         <v>16</v>
@@ -7102,16 +7102,16 @@
     </row>
     <row r="246" spans="1:6">
       <c r="A246" s="28" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B246" s="28" t="s">
         <v>160</v>
       </c>
       <c r="C246" s="28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D246" s="28" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E246" s="28" t="s">
         <v>16</v>
@@ -7120,13 +7120,13 @@
     </row>
     <row r="247" spans="1:6">
       <c r="A247" s="29" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B247" s="29" t="s">
         <v>160</v>
       </c>
       <c r="C247" s="29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D247" s="29">
         <v>5500</v>
@@ -7138,7 +7138,7 @@
     </row>
     <row r="248" spans="1:6">
       <c r="A248" s="24" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B248" s="24" t="s">
         <v>29</v>
@@ -7158,7 +7158,7 @@
     </row>
     <row r="249" spans="1:6">
       <c r="A249" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>54</v>
@@ -7176,7 +7176,7 @@
     </row>
     <row r="250" spans="1:6">
       <c r="A250" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>54</v>
@@ -7194,7 +7194,7 @@
     </row>
     <row r="251" spans="1:6">
       <c r="A251" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>54</v>
@@ -7212,7 +7212,7 @@
     </row>
     <row r="252" spans="1:6">
       <c r="A252" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>54</v>
@@ -7230,7 +7230,7 @@
     </row>
     <row r="253" spans="1:6">
       <c r="A253" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>54</v>
@@ -7248,7 +7248,7 @@
     </row>
     <row r="254" spans="1:6">
       <c r="A254" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>54</v>
@@ -7266,7 +7266,7 @@
     </row>
     <row r="255" spans="1:6">
       <c r="A255" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>54</v>
@@ -7284,7 +7284,7 @@
     </row>
     <row r="256" spans="1:6">
       <c r="A256" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>54</v>
@@ -7302,7 +7302,7 @@
     </row>
     <row r="257" spans="1:6">
       <c r="A257" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>54</v>
@@ -7320,7 +7320,7 @@
     </row>
     <row r="258" spans="1:6">
       <c r="A258" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>54</v>
@@ -7338,7 +7338,7 @@
     </row>
     <row r="259" spans="1:6">
       <c r="A259" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>54</v>
@@ -7356,7 +7356,7 @@
     </row>
     <row r="260" spans="1:6">
       <c r="A260" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>54</v>
@@ -7374,7 +7374,7 @@
     </row>
     <row r="261" spans="1:6">
       <c r="A261" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>54</v>
@@ -7392,7 +7392,7 @@
     </row>
     <row r="262" spans="1:6">
       <c r="A262" s="28" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B262" s="28" t="s">
         <v>158</v>
@@ -7410,16 +7410,16 @@
     </row>
     <row r="263" spans="1:6">
       <c r="A263" s="28" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B263" s="28" t="s">
         <v>160</v>
       </c>
       <c r="C263" s="28" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="D263" s="28" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="E263" s="28" t="s">
         <v>16</v>
@@ -7428,16 +7428,16 @@
     </row>
     <row r="264" spans="1:6">
       <c r="A264" s="28" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B264" s="28" t="s">
         <v>160</v>
       </c>
       <c r="C264" s="28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D264" s="28" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E264" s="28" t="s">
         <v>16</v>
@@ -7446,13 +7446,13 @@
     </row>
     <row r="265" spans="1:6">
       <c r="A265" s="29" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B265" s="29" t="s">
         <v>160</v>
       </c>
       <c r="C265" s="29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D265" s="29">
         <v>5500</v>
@@ -7464,7 +7464,7 @@
     </row>
     <row r="266" spans="1:6">
       <c r="A266" s="24" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B266" s="24" t="s">
         <v>29</v>
@@ -7484,7 +7484,7 @@
     </row>
     <row r="267" spans="1:6">
       <c r="A267" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>54</v>
@@ -7502,7 +7502,7 @@
     </row>
     <row r="268" spans="1:6">
       <c r="A268" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>54</v>
@@ -7520,7 +7520,7 @@
     </row>
     <row r="269" spans="1:6">
       <c r="A269" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>54</v>
@@ -7538,7 +7538,7 @@
     </row>
     <row r="270" spans="1:6">
       <c r="A270" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>54</v>
@@ -7556,7 +7556,7 @@
     </row>
     <row r="271" spans="1:6">
       <c r="A271" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>54</v>
@@ -7574,7 +7574,7 @@
     </row>
     <row r="272" spans="1:6">
       <c r="A272" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>54</v>
@@ -7592,7 +7592,7 @@
     </row>
     <row r="273" spans="1:6">
       <c r="A273" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>54</v>
@@ -7610,7 +7610,7 @@
     </row>
     <row r="274" spans="1:6">
       <c r="A274" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>54</v>
@@ -7628,7 +7628,7 @@
     </row>
     <row r="275" spans="1:6">
       <c r="A275" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>54</v>
@@ -7646,7 +7646,7 @@
     </row>
     <row r="276" spans="1:6">
       <c r="A276" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>54</v>
@@ -7664,7 +7664,7 @@
     </row>
     <row r="277" spans="1:6">
       <c r="A277" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>54</v>
@@ -7682,7 +7682,7 @@
     </row>
     <row r="278" spans="1:6">
       <c r="A278" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>54</v>
@@ -7700,7 +7700,7 @@
     </row>
     <row r="279" spans="1:6">
       <c r="A279" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>54</v>
@@ -7718,7 +7718,7 @@
     </row>
     <row r="280" spans="1:6">
       <c r="A280" s="28" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B280" s="28" t="s">
         <v>158</v>
@@ -7736,16 +7736,16 @@
     </row>
     <row r="281" spans="1:6">
       <c r="A281" s="28" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B281" s="28" t="s">
         <v>160</v>
       </c>
       <c r="C281" s="28" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="D281" s="28" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="E281" s="28" t="s">
         <v>16</v>
@@ -7754,16 +7754,16 @@
     </row>
     <row r="282" spans="1:6">
       <c r="A282" s="28" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B282" s="28" t="s">
         <v>160</v>
       </c>
       <c r="C282" s="28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D282" s="28" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E282" s="28" t="s">
         <v>16</v>
@@ -7772,13 +7772,13 @@
     </row>
     <row r="283" spans="1:6">
       <c r="A283" s="29" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B283" s="29" t="s">
         <v>160</v>
       </c>
       <c r="C283" s="29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D283" s="29">
         <v>5500</v>
@@ -7790,7 +7790,7 @@
     </row>
     <row r="284" spans="1:6">
       <c r="A284" s="24" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B284" s="24" t="s">
         <v>29</v>
@@ -7810,7 +7810,7 @@
     </row>
     <row r="285" spans="1:6">
       <c r="A285" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>54</v>
@@ -7828,7 +7828,7 @@
     </row>
     <row r="286" spans="1:6">
       <c r="A286" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>54</v>
@@ -7846,7 +7846,7 @@
     </row>
     <row r="287" spans="1:6">
       <c r="A287" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>54</v>
@@ -7864,7 +7864,7 @@
     </row>
     <row r="288" spans="1:6">
       <c r="A288" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>54</v>
@@ -7882,7 +7882,7 @@
     </row>
     <row r="289" spans="1:6">
       <c r="A289" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B289" s="1" t="s">
         <v>54</v>
@@ -7900,7 +7900,7 @@
     </row>
     <row r="290" spans="1:6">
       <c r="A290" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>54</v>
@@ -7918,7 +7918,7 @@
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>54</v>
@@ -7936,7 +7936,7 @@
     </row>
     <row r="292" spans="1:6">
       <c r="A292" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>54</v>
@@ -7954,7 +7954,7 @@
     </row>
     <row r="293" spans="1:6">
       <c r="A293" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B293" s="1" t="s">
         <v>54</v>
@@ -7972,7 +7972,7 @@
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>54</v>
@@ -7990,7 +7990,7 @@
     </row>
     <row r="295" spans="1:6">
       <c r="A295" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>54</v>
@@ -8008,7 +8008,7 @@
     </row>
     <row r="296" spans="1:6">
       <c r="A296" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>54</v>
@@ -8026,7 +8026,7 @@
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B297" s="1" t="s">
         <v>54</v>
@@ -8044,7 +8044,7 @@
     </row>
     <row r="298" spans="1:6">
       <c r="A298" s="28" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B298" s="28" t="s">
         <v>158</v>
@@ -8062,16 +8062,16 @@
     </row>
     <row r="299" spans="1:6">
       <c r="A299" s="28" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B299" s="28" t="s">
         <v>160</v>
       </c>
       <c r="C299" s="28" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="D299" s="28" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="E299" s="28" t="s">
         <v>16</v>
@@ -8080,16 +8080,16 @@
     </row>
     <row r="300" spans="1:6">
       <c r="A300" s="28" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B300" s="28" t="s">
         <v>160</v>
       </c>
       <c r="C300" s="28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D300" s="28" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E300" s="28" t="s">
         <v>16</v>
@@ -8098,13 +8098,13 @@
     </row>
     <row r="301" spans="1:6">
       <c r="A301" s="29" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B301" s="29" t="s">
         <v>160</v>
       </c>
       <c r="C301" s="29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D301" s="29">
         <v>5500</v>
@@ -9756,7 +9756,7 @@
   </sheetPr>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
@@ -13013,7 +13013,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
